--- a/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>Elemento</t>
   </si>
@@ -389,6 +389,27 @@
   </si>
   <si>
     <t>DPA06-2022-01-EN</t>
+  </si>
+  <si>
+    <t>Debe ser una de las 24 provincias de Ecuador</t>
+  </si>
+  <si>
+    <t>Número mayor al año en que se empezaron a generar las bases</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 12</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 31 en función del mes</t>
+  </si>
+  <si>
+    <t>Debe cumplir con un formato establecido</t>
+  </si>
+  <si>
+    <t>Se debe especificar en que tipo de proyección se encuentra</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
   </si>
 </sst>
 </file>
@@ -396,7 +417,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -415,12 +436,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -463,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -487,10 +520,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -915,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="3" sqref="E12 E14:E16 E18 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +1020,9 @@
       <c r="F2" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="G2" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>101</v>
       </c>
@@ -1011,6 +1049,9 @@
       <c r="F3" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>102</v>
       </c>
@@ -1037,6 +1078,9 @@
       <c r="F4" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>102</v>
       </c>
@@ -1063,7 +1107,9 @@
       <c r="F5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>102</v>
       </c>
@@ -1090,7 +1136,9 @@
       <c r="F6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>102</v>
       </c>
@@ -1117,7 +1165,9 @@
       <c r="F7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>103</v>
       </c>
@@ -1144,7 +1194,9 @@
       <c r="F8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>103</v>
       </c>
@@ -1171,7 +1223,7 @@
       <c r="F9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10" t="s">
         <v>102</v>
       </c>
@@ -1198,7 +1250,7 @@
       <c r="F10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
         <v>102</v>
       </c>
@@ -1225,9 +1277,11 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H11" s="10" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>107</v>
@@ -1246,11 +1300,11 @@
       <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="10" t="s">
         <v>102</v>
       </c>
@@ -1277,7 +1331,7 @@
       <c r="F13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="10" t="s">
         <v>102</v>
       </c>
@@ -1298,11 +1352,11 @@
       <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1323,11 +1377,11 @@
       <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="10" t="s">
         <v>6</v>
       </c>
@@ -1348,11 +1402,11 @@
       <c r="D16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="10" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1433,7 @@
       <c r="F17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1400,11 +1454,11 @@
       <c r="D18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="10" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1485,7 @@
       <c r="F19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="10" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1512,7 @@
       <c r="F20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1539,7 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1566,7 @@
       <c r="F22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="10" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1593,7 @@
       <c r="F23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="10" t="s">
         <v>102</v>
       </c>
@@ -1566,7 +1620,7 @@
       <c r="F24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="10" t="s">
         <v>102</v>
       </c>
@@ -1593,7 +1647,7 @@
       <c r="F25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="10" t="s">
         <v>102</v>
       </c>
@@ -1620,7 +1674,9 @@
       <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="H26" s="10" t="s">
         <v>102</v>
       </c>
@@ -1644,11 +1700,11 @@
       <c r="D27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="10" t="s">
         <v>102</v>
       </c>
@@ -1675,7 +1731,9 @@
       <c r="F28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H28" s="10" t="s">
         <v>76</v>
       </c>

--- a/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>Elemento</t>
   </si>
@@ -76,12 +76,6 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
-    <t>Relaciones</t>
-  </si>
-  <si>
-    <t>Reglas de Calidad</t>
-  </si>
-  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -241,21 +235,6 @@
     <t>Numérica</t>
   </si>
   <si>
-    <t>Registro de Rescate</t>
-  </si>
-  <si>
-    <t>Coordenadas UTM</t>
-  </si>
-  <si>
-    <t>Datos del Rescatista</t>
-  </si>
-  <si>
-    <t>Datos de la Vida Silvestre Rescatada</t>
-  </si>
-  <si>
-    <t>Medios de Conservación y Manejo Ex Situ</t>
-  </si>
-  <si>
     <t>Identificación</t>
   </si>
   <si>
@@ -334,9 +313,6 @@
     <t>Localización</t>
   </si>
   <si>
-    <t>Evento</t>
-  </si>
-  <si>
     <t>Geolocalización</t>
   </si>
   <si>
@@ -391,25 +367,13 @@
     <t>DPA06-2022-01-EN</t>
   </si>
   <si>
-    <t>Debe ser una de las 24 provincias de Ecuador</t>
-  </si>
-  <si>
-    <t>Número mayor al año en que se empezaron a generar las bases</t>
-  </si>
-  <si>
-    <t>Número entre 1 y 12</t>
-  </si>
-  <si>
-    <t>Número entre 1 y 31 en función del mes</t>
-  </si>
-  <si>
-    <t>Debe cumplir con un formato establecido</t>
-  </si>
-  <si>
-    <t>Se debe especificar en que tipo de proyección se encuentra</t>
-  </si>
-  <si>
-    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+    <t>Clasificación interna de MAATE</t>
+  </si>
+  <si>
+    <t>Número de individuos</t>
+  </si>
+  <si>
+    <t>No se especifica en que unidades están las coordenadas</t>
   </si>
 </sst>
 </file>
@@ -445,13 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +489,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,58 +851,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="3" sqref="E12 E14:E16 E18 E27"/>
+      <selection activeCell="F23" sqref="F23:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,15 +925,13 @@
     <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="9"/>
+    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -994,757 +956,633 @@
       <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="10">
+        <v>840461</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10068046</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="10">
+        <v>44623</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="10">
-        <v>840461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="10">
-        <v>10068046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="10">
-        <v>44623</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
   </sheetData>

--- a/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>Elemento</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
+    <t>Relaciones</t>
+  </si>
+  <si>
+    <t>Reglas de Calidad</t>
+  </si>
+  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -235,6 +241,21 @@
     <t>Numérica</t>
   </si>
   <si>
+    <t>Registro de Rescate</t>
+  </si>
+  <si>
+    <t>Coordenadas UTM</t>
+  </si>
+  <si>
+    <t>Datos del Rescatista</t>
+  </si>
+  <si>
+    <t>Datos de la Vida Silvestre Rescatada</t>
+  </si>
+  <si>
+    <t>Medios de Conservación y Manejo Ex Situ</t>
+  </si>
+  <si>
     <t>Identificación</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>Localización</t>
   </si>
   <si>
+    <t>Evento</t>
+  </si>
+  <si>
     <t>Geolocalización</t>
   </si>
   <si>
@@ -367,13 +391,25 @@
     <t>DPA06-2022-01-EN</t>
   </si>
   <si>
-    <t>Clasificación interna de MAATE</t>
-  </si>
-  <si>
-    <t>Número de individuos</t>
-  </si>
-  <si>
-    <t>No se especifica en que unidades están las coordenadas</t>
+    <t>Debe ser una de las 24 provincias de Ecuador</t>
+  </si>
+  <si>
+    <t>Número mayor al año en que se empezaron a generar las bases</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 12</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 31 en función del mes</t>
+  </si>
+  <si>
+    <t>Debe cumplir con un formato establecido</t>
+  </si>
+  <si>
+    <t>Se debe especificar en que tipo de proyección se encuentra</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
   </si>
 </sst>
 </file>
@@ -409,13 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +525,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,58 +887,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F27"/>
+      <selection activeCell="E27" activeCellId="3" sqref="E12 E14:E16 E18 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,13 +961,15 @@
     <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="9"/>
+    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -956,633 +994,757 @@
       <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="10">
+        <v>840461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="10">
+        <v>10068046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="10">
+        <v>44623</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="10">
-        <v>840461</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10068046</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="10">
-        <v>44623</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
   </sheetData>
